--- a/Cursos de ingles.xlsx
+++ b/Cursos de ingles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>CLASES</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Lección 43 - Usos de WHILE en el pasado TO BE en oraciones afirmativas</t>
+  </si>
+  <si>
+    <t>Lección 45 ¿Cómo usar How long, How much time y Since con WAS y WERE</t>
   </si>
 </sst>
 </file>
@@ -197,14 +200,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:J44"/>
+  <dimension ref="E1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +572,7 @@
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -584,32 +589,32 @@
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -619,7 +624,7 @@
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -629,22 +634,22 @@
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -654,42 +659,47 @@
       </c>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="6"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cursos de ingles.xlsx
+++ b/Cursos de ingles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>CLASES</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Lección 45 ¿Cómo usar How long, How much time y Since con WAS y WERE</t>
+  </si>
+  <si>
+    <t>Lección 46 - Escucha y practica 20 oraciones con Was y Were</t>
   </si>
 </sst>
 </file>
@@ -492,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:J45"/>
+  <dimension ref="E1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +704,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cursos de ingles.xlsx
+++ b/Cursos de ingles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>CLASES</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Lección 46 - Escucha y practica 20 oraciones con Was y Were</t>
+  </si>
+  <si>
+    <t>Lección 47 - Ejercicio de escritura en pasado con Was y Were</t>
+  </si>
+  <si>
+    <t>Lección 48 - ¿Cómo usar So, Too, So much, So many, Too much, Too many con Was y Were?</t>
   </si>
 </sst>
 </file>
@@ -186,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,15 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:J46"/>
+  <dimension ref="E1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="58.42578125" bestFit="1" customWidth="1"/>
@@ -709,6 +716,40 @@
         <v>28</v>
       </c>
     </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E56" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cursos de ingles.xlsx
+++ b/Cursos de ingles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>CLASES</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Lección 48 - ¿Cómo usar So, Too, So much, So many, Too much, Too many con Was y Were?</t>
+  </si>
+  <si>
+    <t>Lección 49 - Cómo decir y preguntar la hora en inglés con PAST y TO</t>
   </si>
 </sst>
 </file>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +730,9 @@
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="10"/>
+      <c r="E49" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
